--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/203.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/203.xlsx
@@ -479,13 +479,13 @@
         <v>-13.08952509408981</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.74465891261372</v>
+        <v>-14.7089431104615</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02977461050117716</v>
+        <v>-0.05966433788883777</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.23651090465902</v>
+        <v>-11.18889419922366</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.82494704318566</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.89418610336908</v>
+        <v>-14.86199213068127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04456348503414346</v>
+        <v>0.01061514376554776</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.93860864579838</v>
+        <v>-10.89417336995356</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.49172824971662</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.25980175252712</v>
+        <v>-15.22454418097435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07851182630273915</v>
+        <v>0.04727359172238076</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.57879288679922</v>
+        <v>-10.53044301240473</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.10128062376359</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.77411977736149</v>
+        <v>-15.7354058378585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2122235152252875</v>
+        <v>0.176402974650325</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.39512097023265</v>
+        <v>-10.34468941968632</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.64879741293377</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.26252813487208</v>
+        <v>-16.22110408868086</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2013307192609714</v>
+        <v>0.1672121780554333</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.23932256641611</v>
+        <v>-10.18677006280942</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.14399295942204</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.84191490482982</v>
+        <v>-16.79401016873195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3500200026344544</v>
+        <v>0.3055454498811109</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.09110460594493</v>
+        <v>-10.03899724063486</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.59836107920824</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.43524497731401</v>
+        <v>-17.38181528941692</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4937603955337649</v>
+        <v>0.4538681487750255</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.885398343695726</v>
+        <v>-9.833487362928283</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.02304187995991</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.17164773525257</v>
+        <v>-18.11112201921527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7783477824043644</v>
+        <v>0.7332447991146182</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.923339837331049</v>
+        <v>-9.870538579970368</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.429711560456896</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.6598466159177</v>
+        <v>-18.59519682448525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8129245542093629</v>
+        <v>0.7734119842330337</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.574299043570631</v>
+        <v>-9.523671108481677</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.832855351922406</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.27058945118138</v>
+        <v>-19.20091221545771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9384142769473073</v>
+        <v>0.8989147992738198</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.529693567788872</v>
+        <v>-9.477062510365132</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.246268127503395</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.81975918618042</v>
+        <v>-19.74835376648164</v>
       </c>
       <c r="F12" t="n">
-        <v>1.103573677295682</v>
+        <v>1.058902739999712</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.039124980309396</v>
+        <v>-8.985786938532204</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.685965587862992</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.63704619107517</v>
+        <v>-20.56217131112334</v>
       </c>
       <c r="F13" t="n">
-        <v>1.292613438027364</v>
+        <v>1.244669425020964</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.556032097752546</v>
+        <v>-8.496030073828914</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.177315441909206</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.46958572878053</v>
+        <v>-21.39423952592639</v>
       </c>
       <c r="F14" t="n">
-        <v>1.620510162698394</v>
+        <v>1.567119751709835</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.110501032048607</v>
+        <v>-8.042316318848897</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.736772973222394</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.29552674585366</v>
+        <v>-22.21830834369316</v>
       </c>
       <c r="F15" t="n">
-        <v>1.736324673636302</v>
+        <v>1.680760940376017</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.679345314864884</v>
+        <v>-7.603986019707909</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.376637937308065</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.15016609075585</v>
+        <v>-23.07504245705003</v>
       </c>
       <c r="F16" t="n">
-        <v>2.017547338676578</v>
+        <v>1.9597579139332</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.093674239543111</v>
+        <v>-7.023748250065451</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.103925237263361</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.76094820292806</v>
+        <v>-23.68760512240871</v>
       </c>
       <c r="F17" t="n">
-        <v>2.209218652279448</v>
+        <v>2.150512766337148</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.010302455046999</v>
+        <v>-6.937993666452146</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.918037450820147</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.5760357009454</v>
+        <v>-24.50057166736569</v>
       </c>
       <c r="F18" t="n">
-        <v>2.63346163356274</v>
+        <v>2.568445257650728</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.60898409603957</v>
+        <v>-6.536884784290184</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.814740580941387</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.43080596887601</v>
+        <v>-25.35187247504324</v>
       </c>
       <c r="F19" t="n">
-        <v>2.899863811786182</v>
+        <v>2.833904790069566</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.301524456104475</v>
+        <v>-6.232802958488254</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.793007975637171</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.18408470517756</v>
+        <v>-26.10504647292206</v>
       </c>
       <c r="F20" t="n">
-        <v>3.12149031429092</v>
+        <v>3.055688400208405</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.199613970784479</v>
+        <v>-6.122526491652396</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.846955613494925</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.76851201172937</v>
+        <v>-26.68915956420567</v>
       </c>
       <c r="F21" t="n">
-        <v>3.435862690126447</v>
+        <v>3.372600682795226</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.862762110969709</v>
+        <v>-5.790780629945899</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.967254741280712</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.35574107108931</v>
+        <v>-27.27573400842352</v>
       </c>
       <c r="F22" t="n">
-        <v>3.63491806253205</v>
+        <v>3.577259560817089</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.728919499018743</v>
+        <v>-5.647406821526157</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.143673727664062</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.79835255325954</v>
+        <v>-27.72193278157239</v>
       </c>
       <c r="F23" t="n">
-        <v>3.81635119531269</v>
+        <v>3.759635339402333</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.526119728000406</v>
+        <v>-5.447709926281309</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.362981548947712</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.02898656011939</v>
+        <v>-27.95163723493047</v>
       </c>
       <c r="F24" t="n">
-        <v>3.953061021585993</v>
+        <v>3.89569055053355</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.365176049167068</v>
+        <v>-5.285627217100741</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.611366049871945</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.29313686225406</v>
+        <v>-28.21827507460506</v>
       </c>
       <c r="F25" t="n">
-        <v>4.269004473762527</v>
+        <v>4.211084125990731</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.068373543745138</v>
+        <v>-4.991469356852839</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.88026787500369</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.25235433890208</v>
+        <v>-28.17804242797244</v>
       </c>
       <c r="F26" t="n">
-        <v>4.436507396319571</v>
+        <v>4.373140650565616</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.075927802484814</v>
+        <v>-4.996077847453127</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.16151039005014</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.14114831856445</v>
+        <v>-28.06936322208327</v>
       </c>
       <c r="F27" t="n">
-        <v>4.384530954037918</v>
+        <v>4.325065714530798</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.88065610560047</v>
+        <v>-4.809368516627271</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.445155889477229</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.09283772107849</v>
+        <v>-28.01869601008579</v>
       </c>
       <c r="F28" t="n">
-        <v>4.35708948728166</v>
+        <v>4.303253937996482</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.789415847096481</v>
+        <v>-4.723679394528174</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.721587013813806</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.87375112532504</v>
+        <v>-27.80423099723548</v>
       </c>
       <c r="F29" t="n">
-        <v>4.343473492326265</v>
+        <v>4.291156650170728</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.666060169721738</v>
+        <v>-4.603374223715553</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.980771071309539</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.72559862636807</v>
+        <v>-27.65809471291613</v>
       </c>
       <c r="F30" t="n">
-        <v>4.240567991990298</v>
+        <v>4.192938194252099</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.619176633245517</v>
+        <v>-4.556883456324584</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.210423751183457</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.27769785384978</v>
+        <v>-27.21290404708608</v>
       </c>
       <c r="F31" t="n">
-        <v>4.092206016187858</v>
+        <v>4.047247048229371</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.702535325438786</v>
+        <v>-4.646749023030192</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.405000267574001</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.89791633301699</v>
+        <v>-26.83608138669552</v>
       </c>
       <c r="F32" t="n">
-        <v>4.003230726075488</v>
+        <v>3.960785480262612</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.781861588356804</v>
+        <v>-4.726729901090296</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.56286429887418</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.47817710391125</v>
+        <v>-26.41639452680115</v>
       </c>
       <c r="F33" t="n">
-        <v>3.868956068130745</v>
+        <v>3.827401098911107</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.701631956542707</v>
+        <v>-4.660731602465155</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.681441172046204</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.98938906961825</v>
+        <v>-25.92963579944862</v>
       </c>
       <c r="F34" t="n">
-        <v>3.735624055990607</v>
+        <v>3.697315977875717</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.514294195180449</v>
+        <v>-4.479979269432285</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.759608847310581</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.57844786802215</v>
+        <v>-25.52212478119705</v>
       </c>
       <c r="F35" t="n">
-        <v>3.49747506729961</v>
+        <v>3.458171974168748</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.51339082628437</v>
+        <v>-4.485203098266133</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.797325370753635</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.88985820006157</v>
+        <v>-24.8331685287569</v>
       </c>
       <c r="F36" t="n">
-        <v>3.272968258169691</v>
+        <v>3.240106578036959</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.779347866211193</v>
+        <v>-4.754263013966447</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.792911063858607</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.40749848646386</v>
+        <v>-24.35401642935541</v>
       </c>
       <c r="F37" t="n">
-        <v>3.144375659658258</v>
+        <v>3.109864349367468</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.767080378448496</v>
+        <v>-4.747533570305799</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.74764776588629</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.98936961060765</v>
+        <v>-23.93862384479312</v>
       </c>
       <c r="F38" t="n">
-        <v>3.070351779391138</v>
+        <v>3.036861668722003</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.913818908698562</v>
+        <v>-4.891797655318778</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.667451520252415</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.48806533479796</v>
+        <v>-23.43883827611307</v>
       </c>
       <c r="F39" t="n">
-        <v>3.042988866451931</v>
+        <v>3.008739402217976</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.780421435044214</v>
+        <v>-4.762511164756734</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.55632113857251</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.10323018506826</v>
+        <v>-23.05560038733007</v>
       </c>
       <c r="F40" t="n">
-        <v>3.140369414988689</v>
+        <v>3.099050107220202</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.761686349677705</v>
+        <v>-4.748253646962094</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.417223409574389</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.5717481512084</v>
+        <v>-22.52510027618332</v>
       </c>
       <c r="F41" t="n">
-        <v>3.152519072025811</v>
+        <v>3.115651147223511</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.689469207202744</v>
+        <v>-4.676245981332601</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.253285206426957</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.89145900324947</v>
+        <v>-21.84867335756271</v>
       </c>
       <c r="F42" t="n">
-        <v>3.24550060680775</v>
+        <v>3.210622712037392</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.718062796609074</v>
+        <v>-4.703766001905909</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.065939176049357</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.22760069535691</v>
+        <v>-21.18557440323496</v>
       </c>
       <c r="F43" t="n">
-        <v>3.364273978187889</v>
+        <v>3.328924760515228</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.764959425388136</v>
+        <v>-4.747402647277382</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.856455737473056</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.93587800343757</v>
+        <v>-20.89620832582714</v>
       </c>
       <c r="F44" t="n">
-        <v>3.268097921512569</v>
+        <v>3.235629010465088</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.814147207164501</v>
+        <v>-4.798711382114107</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.630592576235834</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.44627824636838</v>
+        <v>-20.40977690604564</v>
       </c>
       <c r="F45" t="n">
-        <v>3.398418703999111</v>
+        <v>3.362650532635515</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.759657042737238</v>
+        <v>-4.746577832198353</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.395212721617201</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.12016207488382</v>
+        <v>-20.08203728900872</v>
       </c>
       <c r="F46" t="n">
-        <v>3.425650693909901</v>
+        <v>3.390746614533859</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.726258578187994</v>
+        <v>-4.721623902982024</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.154685411282185</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.57252413931726</v>
+        <v>-19.53847105962593</v>
       </c>
       <c r="F47" t="n">
-        <v>3.431725522428462</v>
+        <v>3.398444888604794</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.99360340221604</v>
+        <v>-4.99170501830399</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.913457455375209</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.09622616193527</v>
+        <v>-19.06342994331674</v>
       </c>
       <c r="F48" t="n">
-        <v>3.358801395600047</v>
+        <v>3.327929745499257</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.108161052081144</v>
+        <v>-5.107008929431071</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.675142662038711</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.71510922621262</v>
+        <v>-18.67681424040057</v>
       </c>
       <c r="F49" t="n">
-        <v>3.377156804184147</v>
+        <v>3.346939769225444</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.399006559710088</v>
+        <v>-5.395471637942822</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.441546207607579</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.1986702483179</v>
+        <v>-18.16216890799516</v>
       </c>
       <c r="F50" t="n">
-        <v>3.5247070572104</v>
+        <v>3.488572301367236</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.302621026189301</v>
+        <v>-5.310672792436963</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.216302979747813</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.53562366320152</v>
+        <v>-17.49744650811505</v>
       </c>
       <c r="F51" t="n">
-        <v>3.544607357529824</v>
+        <v>3.505854141118315</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.515200747430407</v>
+        <v>-5.523527452037745</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.007751109102263</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.14225233201902</v>
+        <v>-17.10516183806841</v>
       </c>
       <c r="F52" t="n">
-        <v>3.369772745381414</v>
+        <v>3.33447589692012</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.81726635859471</v>
+        <v>-5.815826205282121</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.81984871330134</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.75462852178403</v>
+        <v>-16.71531233635033</v>
       </c>
       <c r="F53" t="n">
-        <v>3.401953625766376</v>
+        <v>3.36890865339386</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845362440493055</v>
+        <v>-5.845820671092516</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.656065753831824</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.56346780799199</v>
+        <v>-16.51892779372444</v>
       </c>
       <c r="F54" t="n">
-        <v>3.135341970697467</v>
+        <v>3.103763336243223</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.018102284186789</v>
+        <v>-6.022370374913192</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.519346148089348</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.2766547296383</v>
+        <v>-16.22899874729442</v>
       </c>
       <c r="F55" t="n">
-        <v>2.989022394138336</v>
+        <v>2.956501113879489</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.155453633299337</v>
+        <v>-6.164461137654444</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.409058759133806</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.95305228029936</v>
+        <v>-15.90025102293868</v>
       </c>
       <c r="F56" t="n">
-        <v>2.935396321698626</v>
+        <v>2.902822672228412</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.473989361438532</v>
+        <v>-6.475468791659647</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.32527373162088</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.40592494454362</v>
+        <v>-15.35355573317672</v>
       </c>
       <c r="F57" t="n">
-        <v>2.977920121328553</v>
+        <v>2.93997862769323</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.730781789376147</v>
+        <v>-6.732902742436507</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.271431743345062</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.20747181806874</v>
+        <v>-15.15190808480845</v>
       </c>
       <c r="F58" t="n">
-        <v>2.821205256313092</v>
+        <v>2.781928347787913</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708053551642911</v>
+        <v>-6.708904551327623</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.246988913410638</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.86533066790591</v>
+        <v>-14.80769835079663</v>
       </c>
       <c r="F59" t="n">
-        <v>2.952809084478122</v>
+        <v>2.908530916267404</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.81605195778431</v>
+        <v>-6.818696602958338</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.249713683893126</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.81406120997771</v>
+        <v>-14.75261903274149</v>
       </c>
       <c r="F60" t="n">
-        <v>2.771716351571367</v>
+        <v>2.72743818336065</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823828785672294</v>
+        <v>-6.823671678038194</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.276504748852886</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.46867316871014</v>
+        <v>-14.40827837570126</v>
       </c>
       <c r="F61" t="n">
-        <v>2.658284639750652</v>
+        <v>2.613508964031949</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.237087324871378</v>
+        <v>-7.231771849917637</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.322052920661257</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.26936904255054</v>
+        <v>-14.20266375957195</v>
       </c>
       <c r="F62" t="n">
-        <v>2.614608717470654</v>
+        <v>2.567633534874541</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.175605870726632</v>
+        <v>-7.176679439559654</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.380866738713745</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.9510689758625</v>
+        <v>-13.88380072386171</v>
       </c>
       <c r="F63" t="n">
-        <v>2.541867882882024</v>
+        <v>2.495180730948429</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.382961763133889</v>
+        <v>-7.37864130319612</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.450861380798606</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.76807785904369</v>
+        <v>-13.69703902382449</v>
       </c>
       <c r="F64" t="n">
-        <v>2.455537237943682</v>
+        <v>2.406990979006562</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.386640700232415</v>
+        <v>-7.393514159224321</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.529379219735125</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.58017712865924</v>
+        <v>-13.50764577091608</v>
       </c>
       <c r="F65" t="n">
-        <v>2.200106409501607</v>
+        <v>2.16266242337427</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742698968315997</v>
+        <v>-7.741939614751177</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.612205799202081</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.36626199252828</v>
+        <v>-13.29235594298673</v>
       </c>
       <c r="F66" t="n">
-        <v>2.133806987911106</v>
+        <v>2.096205894149669</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.780666646557003</v>
+        <v>-7.785065660311822</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.695339722875098</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.19738437817285</v>
+        <v>-13.12273206736933</v>
       </c>
       <c r="F67" t="n">
-        <v>2.426603248663468</v>
+        <v>2.373946006634045</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.867678091243114</v>
+        <v>-7.864483569349733</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.774553899388532</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.15076268775347</v>
+        <v>-13.07340027026171</v>
       </c>
       <c r="F68" t="n">
-        <v>2.124118683808229</v>
+        <v>2.081673437995353</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.758828685417003</v>
+        <v>-7.763201514566139</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.844844369261657</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.01113327794646</v>
+        <v>-12.93319479912966</v>
       </c>
       <c r="F69" t="n">
-        <v>2.19641438010024</v>
+        <v>2.142552646209379</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.831124381709015</v>
+        <v>-7.835510303160993</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.905222340073085</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.99455842254883</v>
+        <v>-12.91142229950387</v>
       </c>
       <c r="F70" t="n">
-        <v>2.191203643569233</v>
+        <v>2.14058880078312</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.737514416390673</v>
+        <v>-7.744086752417219</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.957224908814181</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.68561935239262</v>
+        <v>-12.6050362284018</v>
       </c>
       <c r="F71" t="n">
-        <v>2.147999044191537</v>
+        <v>2.096232078755352</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.434637082450182</v>
+        <v>-7.451041737910865</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.000045911476306</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.61678002405083</v>
+        <v>-12.53699553053335</v>
       </c>
       <c r="F72" t="n">
-        <v>2.153366888356645</v>
+        <v>2.10448022954564</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.504419056596582</v>
+        <v>-7.516686544359279</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.033473662611245</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.27831781098653</v>
+        <v>-12.21784446416059</v>
       </c>
       <c r="F73" t="n">
-        <v>2.129696004818804</v>
+        <v>2.080626053768015</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.226521836478105</v>
+        <v>-7.248778751309039</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.057213756425817</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.48067244370824</v>
+        <v>-12.41978014319138</v>
       </c>
       <c r="F74" t="n">
-        <v>2.151691073592904</v>
+        <v>2.104192198883122</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.180764238046272</v>
+        <v>-7.198792339059329</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.068346393953692</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.61379497900291</v>
+        <v>-12.55262774012637</v>
       </c>
       <c r="F75" t="n">
-        <v>2.083715837238662</v>
+        <v>2.036190777923196</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.113325786108541</v>
+        <v>-7.127465473177605</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.066706998566075</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.86620148548855</v>
+        <v>-12.81029735235438</v>
       </c>
       <c r="F76" t="n">
-        <v>2.060463907391756</v>
+        <v>2.015976262335571</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.754662149759455</v>
+        <v>-6.778896002319491</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.055218997785728</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.43887190408849</v>
+        <v>-13.38544221619141</v>
       </c>
       <c r="F77" t="n">
-        <v>2.054886586381181</v>
+        <v>2.00914208025219</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.706731229055896</v>
+        <v>-6.723332269059205</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.034242502297749</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.92810507667811</v>
+        <v>-13.8771760186238</v>
       </c>
       <c r="F78" t="n">
-        <v>2.107177243931035</v>
+        <v>2.059914030672404</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.734395264960463</v>
+        <v>-6.740810493352909</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.00406161576861</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.41609448049777</v>
+        <v>-14.36563674534575</v>
       </c>
       <c r="F79" t="n">
-        <v>2.151036458450818</v>
+        <v>2.104742075602474</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.64403219074687</v>
+        <v>-6.645184313396943</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.96485065940353</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.96371932376148</v>
+        <v>-14.91391620375156</v>
       </c>
       <c r="F80" t="n">
-        <v>2.032708225367297</v>
+        <v>1.992959993939817</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.285656585060303</v>
+        <v>-6.292490767143684</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.915643292389035</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.73484286883631</v>
+        <v>-15.68585147160257</v>
       </c>
       <c r="F81" t="n">
-        <v>2.134252126207725</v>
+        <v>2.092068726451683</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.231978143409226</v>
+        <v>-6.234976280759981</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.856315693696048</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.46193699945441</v>
+        <v>-16.41462141698441</v>
       </c>
       <c r="F82" t="n">
-        <v>2.10084056935564</v>
+        <v>2.062794337297584</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.130093842694913</v>
+        <v>-6.134139364273007</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.79134080027187</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.33914747445574</v>
+        <v>-17.29130819987207</v>
       </c>
       <c r="F83" t="n">
-        <v>2.083846760267079</v>
+        <v>2.044124713445282</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.832060660805861</v>
+        <v>-5.838462796895465</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.725591731865531</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.39157223838789</v>
+        <v>-18.34485890184861</v>
       </c>
       <c r="F84" t="n">
-        <v>2.090445280899309</v>
+        <v>2.055541201523268</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.72685091516975</v>
+        <v>-5.728120868545398</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.663873983471406</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.18978375804224</v>
+        <v>-19.14392142118768</v>
       </c>
       <c r="F85" t="n">
-        <v>2.119641116236358</v>
+        <v>2.08240660695449</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.594959056342202</v>
+        <v>-5.591555057603354</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.61184858584324</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.34303234615852</v>
+        <v>-20.29311139542302</v>
       </c>
       <c r="F86" t="n">
-        <v>2.106732105634416</v>
+        <v>2.070021288466216</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253459429018619</v>
+        <v>-5.252791721573692</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.575238814305744</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.40951824334269</v>
+        <v>-21.35915215431057</v>
       </c>
       <c r="F87" t="n">
-        <v>1.913777746353058</v>
+        <v>1.890421078083418</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.88535624232065</v>
+        <v>-4.890645532668707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.558490361416499</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.74985583906724</v>
+        <v>-22.70085134953066</v>
       </c>
       <c r="F88" t="n">
-        <v>2.011393956340967</v>
+        <v>1.985235535263199</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.662040832749327</v>
+        <v>-4.661909909720911</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.570446595313221</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.12351334552398</v>
+        <v>-24.08026946923776</v>
       </c>
       <c r="F89" t="n">
-        <v>1.883848742056872</v>
+        <v>1.852793799716298</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.273618392040999</v>
+        <v>-4.276498698666178</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.620336461145801</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.59096410953885</v>
+        <v>-25.54904255583964</v>
       </c>
       <c r="F90" t="n">
-        <v>1.664081346555658</v>
+        <v>1.637425417969904</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.166693554732622</v>
+        <v>-4.164232201798377</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.713445245199449</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.2334327779419</v>
+        <v>-27.19221820859615</v>
       </c>
       <c r="F91" t="n">
-        <v>1.45580899294948</v>
+        <v>1.431823894143438</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.060096024995288</v>
+        <v>-4.061824208970396</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.852433088367467</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.81804656008738</v>
+        <v>-28.78401966500173</v>
       </c>
       <c r="F92" t="n">
-        <v>1.329808670400708</v>
+        <v>1.308363478345961</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.788234356486846</v>
+        <v>-3.791572893711487</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.037207347817786</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.66321026108604</v>
+        <v>-30.63216841104831</v>
       </c>
       <c r="F93" t="n">
-        <v>1.189642476177189</v>
+        <v>1.169270852955463</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.77460526922861</v>
+        <v>-3.781373989797782</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.260653182347367</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.73525047802897</v>
+        <v>-32.70848981102048</v>
       </c>
       <c r="F94" t="n">
-        <v>1.073998165176222</v>
+        <v>1.055145249084137</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.764890780520049</v>
+        <v>-3.774565992320084</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.518824308025324</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.76065591224968</v>
+        <v>-34.7380062283335</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6703886531714912</v>
+        <v>0.6510644141771036</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.7485908634821</v>
+        <v>-3.759509844052099</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.810669021192701</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.72693650683716</v>
+        <v>-36.70750752942003</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4517602880175076</v>
+        <v>0.4286261888961777</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.96499353715299</v>
+        <v>-3.973464257091587</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.126933532407875</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.81140131917689</v>
+        <v>-38.79503594062473</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06500056977007784</v>
+        <v>0.04553231544443118</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.953786525920473</v>
+        <v>-3.968279705166263</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.465996992630251</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.02304476132115</v>
+        <v>-41.01491444125643</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.139802323583043</v>
+        <v>-0.1628578688873226</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.153391775045428</v>
+        <v>-4.168303907982154</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.81236071184714</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39796231220457</v>
+        <v>-43.39288249870198</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.06094738356732693</v>
+        <v>-0.08372799051193029</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.483173791325666</v>
+        <v>-4.49745749372599</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.169069832819094</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79594850069512</v>
+        <v>-45.79618416214627</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3408608183234303</v>
+        <v>-0.3552885360550124</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.660927987007781</v>
+        <v>-4.679335764803247</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.507946327188685</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.1941965352425</v>
+        <v>-48.19473331965901</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2687615065740448</v>
+        <v>-0.2892771451270296</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.930904363907015</v>
+        <v>-4.954706170473273</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.861338008385115</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40348336287525</v>
+        <v>-50.40909996079435</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4174638822503695</v>
+        <v>-0.436460813673714</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.292775614452323</v>
+        <v>-5.313945868147393</v>
       </c>
     </row>
   </sheetData>
